--- a/tax evaluation.xlsx
+++ b/tax evaluation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>MF</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Eclerx</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>WNS</t>
+  </si>
+  <si>
+    <t>http://taxadda.com/hra-calculator/</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -552,6 +563,9 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -643,6 +657,15 @@
         <f>SUM(D4:D6)</f>
         <v>62078</v>
       </c>
+      <c r="M7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="Q7" t="s">
         <v>23</v>
       </c>
@@ -661,7 +684,10 @@
       <c r="N8">
         <v>124648</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="O8" s="2">
+        <f>M8+N8</f>
+        <v>198004</v>
+      </c>
       <c r="P8" t="s">
         <v>25</v>
       </c>
@@ -690,6 +716,10 @@
       <c r="N9">
         <v>62324</v>
       </c>
+      <c r="O9" s="2">
+        <f>M9+N9</f>
+        <v>99002</v>
+      </c>
       <c r="P9" t="s">
         <v>26</v>
       </c>
@@ -721,6 +751,9 @@
       <c r="N10">
         <v>39000</v>
       </c>
+      <c r="O10">
+        <v>78000</v>
+      </c>
       <c r="P10" t="s">
         <v>27</v>
       </c>
@@ -752,6 +785,10 @@
       <c r="N11">
         <f>0.1 *N8</f>
         <v>12464.800000000001</v>
+      </c>
+      <c r="O11">
+        <f>0.1 *O8</f>
+        <v>19800.400000000001</v>
       </c>
       <c r="P11" t="s">
         <v>28</v>
@@ -784,6 +821,10 @@
       <c r="N12" s="9">
         <f>0.4*N8</f>
         <v>49859.200000000004</v>
+      </c>
+      <c r="O12" s="9">
+        <f>0.4*O8</f>
+        <v>79201.600000000006</v>
       </c>
       <c r="P12" t="s">
         <v>29</v>
@@ -811,6 +852,10 @@
         <f>N10-N11</f>
         <v>26535.199999999997</v>
       </c>
+      <c r="O13" s="9">
+        <f>O10-O11</f>
+        <v>58199.6</v>
+      </c>
       <c r="P13" t="s">
         <v>30</v>
       </c>
@@ -845,6 +890,9 @@
       <c r="I15" t="s">
         <v>18</v>
       </c>
+      <c r="N15">
+        <v>6500</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -852,6 +900,10 @@
       </c>
       <c r="E16">
         <v>36678</v>
+      </c>
+      <c r="N16">
+        <f>N15*12</f>
+        <v>78000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
